--- a/NPG_Code/Results_NPG_minlen.xlsx
+++ b/NPG_Code/Results_NPG_minlen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT38"/>
+  <dimension ref="A1:AT48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2920,6 +2920,16 @@
           <t xml:space="preserve">(100, 10000) </t>
         </is>
       </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1000, 10000) </t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2000, 10000) </t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3018,6 +3028,56 @@
         </is>
       </c>
       <c r="AC32" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -3104,6 +3164,46 @@
           <t>NPG1</t>
         </is>
       </c>
+      <c r="AG33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>494</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>9.903114219051315e-07</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.818989403545856e-12</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>69.00023085344583</v>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>NPG1</t>
+        </is>
+      </c>
+      <c r="AO33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>169</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>9.746984975540058e-07</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2.546585164964199e-11</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>27.94447601307184</v>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>NPG1</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="n">
@@ -3174,6 +3274,40 @@
           <t>NPG2</t>
         </is>
       </c>
+      <c r="AH34" t="n">
+        <v>445</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>8.768577252238355e-07</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>64.28357172198594</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>NPG2</t>
+        </is>
+      </c>
+      <c r="AP34" t="n">
+        <v>153</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>9.797821944636511e-07</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.091393642127514e-11</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>24.39155614189804</v>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>NPG2</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="n">
@@ -3244,6 +3378,40 @@
           <t>AdPG</t>
         </is>
       </c>
+      <c r="AH35" t="n">
+        <v>1156</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>9.996581219359656e-07</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.2732925824821e-11</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>157.0114721460268</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>AdPG</t>
+        </is>
+      </c>
+      <c r="AP35" t="n">
+        <v>374</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>9.070735907268453e-07</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>5.456968210637569e-12</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>60.43496393319219</v>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>AdPG</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="n">
@@ -3314,6 +3482,40 @@
           <t>AdaPG[1.5, 0.75]</t>
         </is>
       </c>
+      <c r="AH36" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>9.959513476882385e-07</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.2732925824821e-11</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>166.1632217271253</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>AdaPG[1.5, 0.75]</t>
+        </is>
+      </c>
+      <c r="AP36" t="n">
+        <v>375</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>9.96443692078795e-07</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>9.094947017729282e-12</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>71.75540275964886</v>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>AdaPG[1.5, 0.75]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="n">
@@ -3384,6 +3586,40 @@
           <t>PG-LS[1.1, 0.5]</t>
         </is>
       </c>
+      <c r="AH37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>75.98504085327562</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.982698449864984e-10</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>319.7198628960177</v>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>PG-LS[1.1, 0.5]</t>
+        </is>
+      </c>
+      <c r="AP37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>3.447065752526245</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>2.000888343900442e-11</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>216.9363348800689</v>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>PG-LS[1.1, 0.5]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="n">
@@ -3450,6 +3686,191 @@
         <v>6290.619794497266</v>
       </c>
       <c r="AD38" t="inlineStr">
+        <is>
+          <t>PG-LS[1.2, 0.5]</t>
+        </is>
+      </c>
+      <c r="AH38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.005630165025612393</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.455635694786906e-10</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>409.0998869882897</v>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>PG-LS[1.2, 0.5]</t>
+        </is>
+      </c>
+      <c r="AP38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>37.26707100255064</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>5.275069270282984e-11</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>243.1232928987592</v>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>PG-LS[1.2, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(50, 5000) </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>25370</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.997310441868259e-07</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>49.94762175902724</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NPG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="n">
+        <v>32926</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.999727942538714e-07</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.818989403545856e-12</v>
+      </c>
+      <c r="E44" t="n">
+        <v>40.21087073627859</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NPG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.500767949450377e-06</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.731677912175655e-09</v>
+      </c>
+      <c r="E45" t="n">
+        <v>50.72289928887039</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>AdPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.429748190058816e-06</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.378772817086428e-09</v>
+      </c>
+      <c r="E46" t="n">
+        <v>63.33620479982346</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>AdaPG[1.5, 0.75]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.976956301760311e-05</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.215397787746042e-06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>54.56627183035016</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PG-LS[1.1, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.836204009806177e-05</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.04966511571547e-06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>66.18509535398334</v>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>PG-LS[1.2, 0.5]</t>
         </is>
